--- a/control_table_and_incompatibility.xlsx
+++ b/control_table_and_incompatibility.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
   <si>
     <t xml:space="preserve">N° Route</t>
   </si>
@@ -84,10 +84,6 @@
     <t xml:space="preserve">A4</t>
   </si>
   <si>
-    <t xml:space="preserve">
-(-)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(+)
  +</t>
   </si>
@@ -99,6 +95,7 @@
   </si>
   <si>
     <t xml:space="preserve">+
+(+)
 </t>
   </si>
   <si>
@@ -158,7 +155,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -180,14 +177,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -485,21 +482,21 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="10" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="14.43"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="10" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="14.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -626,11 +623,9 @@
         <f aca="false">CONCATENATE(B7, "_", C7)</f>
         <v>A2_A4</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>17</v>
@@ -645,26 +640,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="9" t="str">
         <f aca="false">CONCATENATE(B8, "_", C8)</f>
         <v>E1_z2</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="I8" s="11"/>
     </row>
@@ -673,26 +668,26 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="9" t="str">
         <f aca="false">CONCATENATE(B9, "_", C9)</f>
         <v>E1_z1</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="11"/>
     </row>
@@ -701,10 +696,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9" t="str">
         <f aca="false">CONCATENATE(B10, "_", C10)</f>
@@ -712,10 +707,10 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
@@ -1716,7 +1711,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1731,17 +1726,17 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="2.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="2.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="12" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1758,22 +1753,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,22 +1777,22 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,22 +1801,22 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1830,22 +1825,22 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,22 +1882,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="J6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,22 +1915,22 @@
         <v>10</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="J7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,122 +1948,122 @@
         <v>18</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="H8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="15" t="str">
         <f aca="false">CONCATENATE(C9, "_", D9)</f>
         <v>E1_z2</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="I9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="J9" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="15" t="str">
         <f aca="false">CONCATENATE(C10, "_", D10)</f>
         <v>E1_z1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="J10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="15" t="str">
         <f aca="false">CONCATENATE(C11, "_", D11)</f>
         <v>E2_z2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="H11" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3074,11 +3069,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:J11">
-    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="c" dxfId="3"/>
+    <cfRule type="containsText" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="c" dxfId="3"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
